--- a/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB3390-578C-A94F-9C85-F37E946417B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="1000" windowWidth="28180" windowHeight="22000" xr2:uid="{2FF1EF31-B637-584E-9E3D-49C501504A22}"/>
+    <workbookView xWindow="5280" yWindow="6140" windowWidth="41920" windowHeight="19560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="1990" sheetId="3" r:id="rId3"/>
     <sheet name="2005" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
   <si>
     <t>Data Processing Notes</t>
   </si>
@@ -304,12 +303,15 @@
   </si>
   <si>
     <t>eg at the state level, 2005</t>
+  </si>
+  <si>
+    <t>Scale to the southern region using the 2010 and 2015 data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -662,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7CE003-C972-7147-A0C6-2282FB9BD6A9}">
-  <dimension ref="A1:A36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,155 +708,160 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>89</v>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:A35">
-    <sortCondition ref="A11"/>
+  <sortState ref="A12:A36">
+    <sortCondition ref="A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7252B790-3F64-1E4B-9C97-C7685DC1802A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,11 +1445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B28FAD4-D7F7-474A-9743-CCEB2D6CB6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,11 +2158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9951709-8A31-104A-B4CC-CABE28CAFFB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2289,7 +2296,7 @@
         <v>49175.87184</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M17" si="4">F4/L4</f>
+        <f t="shared" ref="M4:M11" si="4">F4/L4</f>
         <v>1.3766914030577968</v>
       </c>
     </row>

--- a/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="6140" windowWidth="41920" windowHeight="19560"/>
+    <workbookView xWindow="2620" yWindow="4140" windowWidth="18560" windowHeight="22940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="1975" sheetId="2" r:id="rId2"/>
     <sheet name="1990" sheetId="3" r:id="rId3"/>
     <sheet name="2005" sheetId="4" r:id="rId4"/>
+    <sheet name="2010" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
   <si>
     <t>Data Processing Notes</t>
   </si>
@@ -306,6 +308,183 @@
   </si>
   <si>
     <t>Scale to the southern region using the 2010 and 2015 data</t>
+  </si>
+  <si>
+    <t>Acreage by District 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEAT, SPRING, (EXCL DURUM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEAT, WINTER </t>
+  </si>
+  <si>
+    <t>BU / ACRE</t>
+  </si>
+  <si>
+    <t>Yield at State level</t>
+  </si>
+  <si>
+    <t>Dry Beans</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Stone/Pome Fruit</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>Sod / Grass Seeds</t>
+  </si>
+  <si>
+    <t>pep</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>ID Total</t>
+  </si>
+  <si>
+    <t>POTATOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLES </t>
+  </si>
+  <si>
+    <t>PRICE RECEIVED, MEASURED IN $ / LB</t>
+  </si>
+  <si>
+    <t>ALL CLASSES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>$ / LB</t>
+  </si>
+  <si>
+    <t>APPLES</t>
+  </si>
+  <si>
+    <t>YIELD, MEASURED IN LB / ACRE</t>
+  </si>
+  <si>
+    <t>PRICE RECEIVED, MEASURED IN $ / TON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERRIES, SWEET </t>
+  </si>
+  <si>
+    <t>SWEET</t>
+  </si>
+  <si>
+    <t>CHERRIES</t>
+  </si>
+  <si>
+    <t>YIELD, MEASURED IN TONS / ACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEACHES </t>
+  </si>
+  <si>
+    <t>PEACHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUMS &amp; PRUNES </t>
+  </si>
+  <si>
+    <t>PLUMS &amp; PRUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEANS, DRY EDIBLE, EXCL CHICKPEAS </t>
+  </si>
+  <si>
+    <t>CDL Data</t>
+  </si>
+  <si>
+    <t>CDL</t>
+  </si>
+  <si>
+    <t>$/ TON</t>
+  </si>
+  <si>
+    <t>CDL AREA</t>
+  </si>
+  <si>
+    <t>Fractional</t>
+  </si>
+  <si>
+    <t>Total Area</t>
+  </si>
+  <si>
+    <t>Weighted Avg Price</t>
+  </si>
+  <si>
+    <t>Yeild</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>PEARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDL Stonne/Pomme AREA </t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area </t>
+  </si>
+  <si>
+    <t>Area Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Price Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeild </t>
+  </si>
+  <si>
+    <t>Yeild Units</t>
+  </si>
+  <si>
+    <t>Yeild Source</t>
+  </si>
+  <si>
+    <t>Price Unit</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>corn total</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeild </t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -347,10 +526,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,7 +1050,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -878,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -904,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -939,8 +1119,17 @@
         <f t="shared" si="0"/>
         <v>0.7124820659971306</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -975,8 +1164,19 @@
         <f t="shared" si="2"/>
         <v>3.6363636363636362E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4">
+        <f>F4+F5</f>
+        <v>121300</v>
+      </c>
+      <c r="M4">
+        <f>(F14*(F4/L4))+(F15*(F5/L4))</f>
+        <v>36.421104699093164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1212,7 @@
         <v>0.1087202718006795</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1248,7 @@
         <v>0.30612244897959184</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1284,7 @@
         <v>0.29081119961074264</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1317,7 @@
         <v>0.82818680174866421</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1353,7 @@
         <v>0.6174183514774495</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1223,7 +1423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1448,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,6 +2902,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>45000</v>
+      </c>
       <c r="J17" t="s">
         <v>59</v>
       </c>
@@ -3121,6 +3325,1228 @@
       </c>
       <c r="C50">
         <v>20.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>129000</v>
+      </c>
+      <c r="D3">
+        <v>6000</v>
+      </c>
+      <c r="E3">
+        <v>304000</v>
+      </c>
+      <c r="F3">
+        <f>SUM(C3:E3)</f>
+        <v>439000</v>
+      </c>
+      <c r="G3">
+        <v>470000</v>
+      </c>
+      <c r="H3">
+        <f>C3/$F3</f>
+        <v>0.29384965831435078</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:J3" si="0">D3/$F3</f>
+        <v>1.366742596810934E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.69248291571753984</v>
+      </c>
+      <c r="K3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>56700</v>
+      </c>
+      <c r="D4">
+        <v>24400</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">SUM(C4:E4)</f>
+        <v>81600</v>
+      </c>
+      <c r="G4">
+        <v>134000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">C4/$F4</f>
+        <v>0.69485294117647056</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">D4/$F4</f>
+        <v>0.29901960784313725</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="4">E4/$F4</f>
+        <v>6.1274509803921568E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="3">
+        <v>332526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>339000</v>
+      </c>
+      <c r="D5">
+        <v>210000</v>
+      </c>
+      <c r="E5">
+        <v>519000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1068000</v>
+      </c>
+      <c r="G5">
+        <f>C5+D5+E5+62000</f>
+        <v>1130000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.31741573033707865</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.19662921348314608</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.4859550561797753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>9000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="G6">
+        <v>20000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>104900</v>
+      </c>
+      <c r="D7">
+        <v>26900</v>
+      </c>
+      <c r="E7">
+        <v>38200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="G7">
+        <v>170000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.61705882352941177</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.15823529411764706</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.22470588235294117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>69000</v>
+      </c>
+      <c r="D8">
+        <v>18500</v>
+      </c>
+      <c r="E8">
+        <v>407000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>494500</v>
+      </c>
+      <c r="G8">
+        <v>615000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>3.7411526794742161E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.82305358948432761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>92000</v>
+      </c>
+      <c r="D9">
+        <v>58000</v>
+      </c>
+      <c r="E9">
+        <v>224000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>374000</v>
+      </c>
+      <c r="G9">
+        <v>710000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.24598930481283424</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.15508021390374332</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.59893048128342241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>71000</v>
+      </c>
+      <c r="D10">
+        <v>16000</v>
+      </c>
+      <c r="E10">
+        <v>207000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>294000</v>
+      </c>
+      <c r="G10">
+        <v>294000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.24149659863945577</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>5.4421768707482991E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.70408163265306123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1">
+        <f>984*30*30*0.000247105</f>
+        <v>218.83618800000002</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>2331</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="1">
+        <f>13255*30*30*0.000247105</f>
+        <v>2947.8390975000002</v>
+      </c>
+      <c r="J13" s="1">
+        <f>G13/I13</f>
+        <v>0.79074872233592108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <f>15500+1000</f>
+        <v>16500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="1">
+        <f>1393*30*30*0.000247105</f>
+        <v>309.79553850000002</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J16" si="5">G14/I14</f>
+        <v>53.260934873017867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15">
+        <v>9000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1">
+        <f>119538*30*30*0.000247105</f>
+        <v>26584.593741000001</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33854194228741513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16">
+        <v>30000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="1">
+        <f>53371*30*30*0.000247105</f>
+        <v>11869.416859500001</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5275041187881699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1">
+        <f>11915*30*30*0.000247105</f>
+        <v>2649.8304674999999</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="1">
+        <f>15166*30*30*0.000247105</f>
+        <v>3372.8349870000002</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>118.3</v>
+      </c>
+      <c r="D23">
+        <v>91.7</v>
+      </c>
+      <c r="E23">
+        <v>83.8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F30" si="6">(C3*H3)+(D3*I3)+(E3*J3)</f>
+        <v>248503.41685649203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2290</v>
+      </c>
+      <c r="D24">
+        <v>2390</v>
+      </c>
+      <c r="E24">
+        <v>1600</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>46697.303921568629</v>
+      </c>
+      <c r="G24">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>4.7</v>
+      </c>
+      <c r="D25">
+        <v>5.05</v>
+      </c>
+      <c r="E25">
+        <v>3.75</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="6"/>
+        <v>401106.74157303374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>82.2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>29.8</v>
+      </c>
+      <c r="D27">
+        <v>36.4</v>
+      </c>
+      <c r="E27">
+        <v>30.4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>77569.76470588235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>97.5</v>
+      </c>
+      <c r="D28">
+        <v>94.1</v>
+      </c>
+      <c r="E28">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>345302.83114256826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>109</v>
+      </c>
+      <c r="E29">
+        <v>77.7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>165786.09625668448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>428</v>
+      </c>
+      <c r="D30">
+        <v>545</v>
+      </c>
+      <c r="E30">
+        <v>357</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>163761.90476190476</v>
+      </c>
+      <c r="G30">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>2129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33">
+        <f>15500/G14</f>
+        <v>0.93939393939393945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34">
+        <f>1000/G14</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>127</v>
+      </c>
+      <c r="D46">
+        <f>C46*D25*D5</f>
+        <v>134683500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="1">
+        <f>G74*I73*J73</f>
+        <v>15693760.770978866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62">
+        <f>0.232*2000</f>
+        <v>464</v>
+      </c>
+      <c r="H62">
+        <f>10200</f>
+        <v>10200</v>
+      </c>
+      <c r="I62">
+        <f>H62/H73</f>
+        <v>0.56669814989721656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63">
+        <f>23100/2000</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64">
+        <v>2230</v>
+      </c>
+      <c r="H64">
+        <f>1450</f>
+        <v>1450</v>
+      </c>
+      <c r="I64">
+        <f>H64/H73</f>
+        <v>8.0560031112839603E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66">
+        <v>908</v>
+      </c>
+      <c r="H66">
+        <f>2850</f>
+        <v>2850</v>
+      </c>
+      <c r="I66">
+        <f>H66/H73</f>
+        <v>0.15834213011833992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68">
+        <v>378</v>
+      </c>
+      <c r="H68">
+        <f>557</f>
+        <v>557</v>
+      </c>
+      <c r="I68">
+        <f>H68/H73</f>
+        <v>3.0946163675759763E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" t="s">
+        <v>131</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G73" s="3">
+        <v>15166</v>
+      </c>
+      <c r="H73" s="3">
+        <f>SUM(H62,H64,H66,H68,H70, H71)</f>
+        <v>17999</v>
+      </c>
+      <c r="I73">
+        <f>(I62*G62)+(I64*G64)+(I66*G66)+(I68*G68)</f>
+        <v>598.06911495083068</v>
+      </c>
+      <c r="J73">
+        <f>(I62*G63)+(I64*G65)+(I66*G67)+(I68*G69)</f>
+        <v>7.7800172231790663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G74" s="3">
+        <f>G73*30*30*0.000247105</f>
+        <v>3372.8349870000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_yield_area_val.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B091C-FE7F-A940-88B6-4EEFC0AC3054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="4140" windowWidth="18560" windowHeight="22940" activeTab="4"/>
+    <workbookView xWindow="3540" yWindow="1480" windowWidth="25600" windowHeight="16060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="2010" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
   <si>
     <t>Data Processing Notes</t>
   </si>
@@ -421,9 +422,6 @@
     <t>$/ TON</t>
   </si>
   <si>
-    <t>CDL AREA</t>
-  </si>
-  <si>
     <t>Fractional</t>
   </si>
   <si>
@@ -445,36 +443,6 @@
     <t xml:space="preserve">CDL Stonne/Pomme AREA </t>
   </si>
   <si>
-    <t>Crop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area </t>
-  </si>
-  <si>
-    <t>Area Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price </t>
-  </si>
-  <si>
-    <t>Price Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeild </t>
-  </si>
-  <si>
-    <t>Yeild Units</t>
-  </si>
-  <si>
-    <t>Yeild Source</t>
-  </si>
-  <si>
-    <t>Price Unit</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>corn total</t>
   </si>
   <si>
@@ -485,12 +453,30 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>CDL Pixels</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>TONS / ACRE	14.5</t>
+  </si>
+  <si>
+    <t>Acreage by District 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -526,11 +512,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,7 +1016,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A12:A36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:A36">
     <sortCondition ref="A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1120,13 +1107,13 @@
         <v>0.7124820659971306</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1165,7 +1152,7 @@
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L4">
         <f>F4+F5</f>
@@ -1645,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -2358,11 +2345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2523,7 @@
         <v>869759</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f>K5*30*30*0.000247105</f>
         <v>193429.6179255</v>
       </c>
       <c r="M5">
@@ -3333,17 +3320,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4091,10 +4080,6 @@
       <c r="C46">
         <v>127</v>
       </c>
-      <c r="D46">
-        <f>C46*D25*D5</f>
-        <v>134683500</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4215,17 +4200,14 @@
       <c r="A58" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="1">
-        <f>G74*I73*J73</f>
-        <v>15693760.770978866</v>
-      </c>
+      <c r="D58" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" t="s">
         <v>128</v>
-      </c>
-      <c r="I61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4255,9 +4237,9 @@
         <f>10200</f>
         <v>10200</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <f>H62/H73</f>
-        <v>0.56669814989721656</v>
+        <v>0.67326732673267331</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4283,6 +4265,7 @@
         <f>23100/2000</f>
         <v>11.55</v>
       </c>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -4310,9 +4293,9 @@
         <f>1450</f>
         <v>1450</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <f>H64/H73</f>
-        <v>8.0560031112839603E-2</v>
+        <v>9.5709570957095716E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4337,6 +4320,7 @@
       <c r="G65">
         <v>2.11</v>
       </c>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -4364,9 +4348,9 @@
         <f>2850</f>
         <v>2850</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <f>H66/H73</f>
-        <v>0.15834213011833992</v>
+        <v>0.18811881188118812</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4391,6 +4375,7 @@
       <c r="G67">
         <v>5.69</v>
       </c>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -4418,9 +4403,9 @@
         <f>557</f>
         <v>557</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <f>H68/H73</f>
-        <v>3.0946163675759763E-2</v>
+        <v>3.6765676567656766E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4445,55 +4430,71 @@
       <c r="G69">
         <v>5.29</v>
       </c>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2849</v>
-      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
       </c>
       <c r="H71" s="3">
         <v>93</v>
       </c>
+      <c r="I71" s="4">
+        <f>H71/H73</f>
+        <v>6.1386138613861389E-3</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72">
+        <v>476</v>
+      </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H72" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" t="s">
         <v>130</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>131</v>
       </c>
-      <c r="J72" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
       <c r="G73" s="3">
         <v>15166</v>
       </c>
-      <c r="H73" s="3">
-        <f>SUM(H62,H64,H66,H68,H70, H71)</f>
-        <v>17999</v>
+      <c r="H73" s="1">
+        <f>SUM(H62,H64,H66,H68, H71)</f>
+        <v>15150</v>
       </c>
       <c r="I73">
-        <f>(I62*G62)+(I64*G64)+(I66*G66)+(I68*G68)</f>
-        <v>598.06911495083068</v>
+        <f>(I62*G62)+(I64*G64)+(I66*G66)+(I68*G68)+(I71*D72)</f>
+        <v>713.45966996699667</v>
       </c>
       <c r="J73">
-        <f>(I62*G63)+(I64*G65)+(I66*G67)+(I68*G69)</f>
-        <v>7.7800172231790663</v>
+        <f>(I62*G63)+(I64*G65)+(I66*G67)+(I68*G69)+(I71*D73)</f>
+        <v>9.2430712871287142</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4508,45 +4509,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
         <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <f>SUM(C3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f>C3/$F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:J3" si="0">D3/$F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
